--- a/05.Controls/M3.Cord.Controls/Resources/Excels/FMCS11_S8x2.xlsx
+++ b/05.Controls/M3.Cord.Controls/Resources/Excels/FMCS11_S8x2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="11712" windowHeight="6456" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="11712" windowHeight="6456"/>
   </bookViews>
   <sheets>
     <sheet name="FM-CS-11" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
   <si>
     <t>Zone</t>
   </si>
@@ -831,6 +831,12 @@
   </si>
   <si>
     <t>FM-CS-11 -02   Effective date  : 25 /August / 2023     Approved by  :  CS</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>บันทึก</t>
   </si>
 </sst>
 </file>
@@ -973,16 +979,15 @@
       <charset val="222"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="Wingdings 2"/>
       <family val="1"/>
       <charset val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Wingdings 2"/>
+      <sz val="22"/>
+      <name val="AngsanaUPC"/>
       <family val="1"/>
-      <charset val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1816,7 +1821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2196,11 +2201,23 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2208,86 +2225,191 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2295,14 +2417,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2316,41 +2447,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2358,181 +2513,61 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2553,59 +2588,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2966,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:O27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="23.4"/>
@@ -2987,7 +2980,7 @@
     <col min="19" max="19" width="9.75" style="1" customWidth="1"/>
     <col min="20" max="20" width="8.75" style="1" customWidth="1"/>
     <col min="21" max="21" width="6.125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="3.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.75" style="1" customWidth="1"/>
     <col min="23" max="23" width="9.125" style="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="1" customWidth="1"/>
     <col min="25" max="16384" width="9.125" style="1"/>
@@ -2999,56 +2992,56 @@
         <v>119</v>
       </c>
       <c r="B2" s="34"/>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="207" t="s">
+      <c r="R2" s="176"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="U2" s="208"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="210" t="s">
+      <c r="U2" s="179"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="181" t="s">
         <v>124</v>
       </c>
-      <c r="X2" s="211"/>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="198"/>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="198"/>
-      <c r="AJ2" s="198"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="198"/>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="198"/>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="198"/>
-      <c r="AS2" s="198"/>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="198"/>
+      <c r="X2" s="182"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="169"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="169"/>
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="169"/>
+      <c r="AN2" s="169"/>
+      <c r="AO2" s="169"/>
+      <c r="AP2" s="169"/>
+      <c r="AQ2" s="169"/>
+      <c r="AR2" s="169"/>
+      <c r="AS2" s="169"/>
+      <c r="AT2" s="169"/>
+      <c r="AU2" s="169"/>
     </row>
     <row r="3" spans="1:47" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="35"/>
@@ -3077,55 +3070,55 @@
       <c r="X3" s="38"/>
     </row>
     <row r="4" spans="1:47" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="201" t="s">
+      <c r="B4" s="171"/>
+      <c r="C4" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="202"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="201" t="s">
+      <c r="D4" s="173"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="202" t="s">
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="202" t="s">
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="201" t="s">
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="200"/>
-      <c r="T4" s="201" t="s">
+      <c r="S4" s="171"/>
+      <c r="T4" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="202"/>
-      <c r="V4" s="202"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="203"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="173"/>
+      <c r="X4" s="174"/>
     </row>
     <row r="5" spans="1:47" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="149"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="223"/>
+      <c r="A5" s="229"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>118</v>
@@ -3144,115 +3137,115 @@
       <c r="S5" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="212" t="s">
+      <c r="T5" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="213"/>
-      <c r="V5" s="212" t="s">
+      <c r="U5" s="134"/>
+      <c r="V5" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="216"/>
-      <c r="X5" s="217"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="140"/>
     </row>
     <row r="6" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="151"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="234"/>
-      <c r="K6" s="235"/>
-      <c r="L6" s="235"/>
-      <c r="M6" s="236"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="214" t="s">
+      <c r="A6" s="230"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="224"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="226"/>
+      <c r="R6" s="261"/>
+      <c r="S6" s="261"/>
+      <c r="T6" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="215"/>
-      <c r="V6" s="214" t="s">
+      <c r="U6" s="136"/>
+      <c r="V6" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="218"/>
-      <c r="X6" s="219"/>
+      <c r="W6" s="141"/>
+      <c r="X6" s="142"/>
     </row>
     <row r="7" spans="1:47" s="3" customFormat="1" ht="17.399999999999999">
-      <c r="A7" s="152"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="237"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="238"/>
-      <c r="M7" s="239"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="148"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="133" t="s">
+      <c r="A7" s="221"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="U7" s="134"/>
-      <c r="V7" s="133"/>
-      <c r="W7" s="194"/>
-      <c r="X7" s="220"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="144"/>
     </row>
     <row r="8" spans="1:47" s="3" customFormat="1" ht="19.2">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="133" t="s">
+      <c r="B8" s="138"/>
+      <c r="C8" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="194"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="133" t="s">
+      <c r="D8" s="143"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="134"/>
-      <c r="H8" s="133" t="s">
+      <c r="G8" s="138"/>
+      <c r="H8" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="134"/>
-      <c r="J8" s="194" t="s">
+      <c r="I8" s="138"/>
+      <c r="J8" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="194" t="s">
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="194"/>
-      <c r="P8" s="194"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="143" t="s">
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="144"/>
-      <c r="T8" s="133" t="s">
+      <c r="S8" s="168"/>
+      <c r="T8" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="134"/>
-      <c r="V8" s="133"/>
-      <c r="W8" s="194"/>
-      <c r="X8" s="220"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="144"/>
     </row>
     <row r="9" spans="1:47" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="19" t="s">
@@ -3261,68 +3254,68 @@
       <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="133" t="s">
+      <c r="C9" s="167"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="134"/>
-      <c r="L9" s="194" t="s">
+      <c r="K9" s="138"/>
+      <c r="L9" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="134"/>
-      <c r="N9" s="133" t="s">
+      <c r="M9" s="138"/>
+      <c r="N9" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="134"/>
-      <c r="P9" s="194" t="s">
+      <c r="O9" s="138"/>
+      <c r="P9" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="195" t="s">
+      <c r="Q9" s="138"/>
+      <c r="R9" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="S9" s="196"/>
-      <c r="T9" s="133" t="s">
+      <c r="S9" s="236"/>
+      <c r="T9" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="U9" s="134"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="194"/>
-      <c r="X9" s="220"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="144"/>
     </row>
     <row r="10" spans="1:47" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A10" s="131"/>
       <c r="B10" s="132"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="136"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="185" t="s">
+      <c r="C10" s="227"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="217"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="217"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="217"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="186"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="242"/>
-      <c r="X10" s="243"/>
+      <c r="U10" s="187"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="166"/>
     </row>
     <row r="11" spans="1:47" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="27" t="s">
@@ -3331,15 +3324,15 @@
       <c r="B11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="153" t="s">
+      <c r="D11" s="189"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="150"/>
+      <c r="G11" s="190"/>
       <c r="H11" s="23" t="s">
         <v>30</v>
       </c>
@@ -3355,22 +3348,22 @@
       <c r="L11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="153" t="s">
+      <c r="M11" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="154"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="153" t="s">
+      <c r="N11" s="189"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="150"/>
-      <c r="T11" s="187" t="s">
+      <c r="Q11" s="189"/>
+      <c r="R11" s="189"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="U11" s="188"/>
-      <c r="V11" s="189"/>
+      <c r="U11" s="192"/>
+      <c r="V11" s="193"/>
       <c r="W11" s="26" t="s">
         <v>40</v>
       </c>
@@ -3437,10 +3430,12 @@
       <c r="T12" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="U12" s="190" t="s">
+      <c r="U12" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="V12" s="190"/>
+      <c r="V12" s="85" t="s">
+        <v>163</v>
+      </c>
       <c r="W12" s="114" t="s">
         <v>42</v>
       </c>
@@ -3509,10 +3504,12 @@
       <c r="T13" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="U13" s="190" t="s">
+      <c r="U13" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="V13" s="190"/>
+      <c r="V13" s="85" t="s">
+        <v>164</v>
+      </c>
       <c r="W13" s="13"/>
       <c r="X13" s="78"/>
     </row>
@@ -3537,8 +3534,8 @@
       <c r="R14" s="116"/>
       <c r="S14" s="116"/>
       <c r="T14" s="114"/>
-      <c r="U14" s="190"/>
-      <c r="V14" s="190"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
       <c r="W14" s="13"/>
       <c r="X14" s="78"/>
     </row>
@@ -3563,16 +3560,16 @@
       <c r="R15" s="116"/>
       <c r="S15" s="116"/>
       <c r="T15" s="114"/>
-      <c r="U15" s="240"/>
-      <c r="V15" s="241"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
       <c r="W15" s="13"/>
       <c r="X15" s="78"/>
     </row>
     <row r="16" spans="1:47" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="183" t="s">
+      <c r="A16" s="233" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="184"/>
+      <c r="B16" s="234"/>
       <c r="C16" s="121"/>
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
@@ -3591,8 +3588,8 @@
       <c r="R16" s="121"/>
       <c r="S16" s="121"/>
       <c r="T16" s="121"/>
-      <c r="U16" s="191"/>
-      <c r="V16" s="192"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="121"/>
       <c r="W16" s="121"/>
       <c r="X16" s="123"/>
     </row>
@@ -3617,8 +3614,8 @@
       <c r="R17" s="53"/>
       <c r="S17" s="53"/>
       <c r="T17" s="53"/>
-      <c r="U17" s="140"/>
-      <c r="V17" s="142"/>
+      <c r="U17" s="263"/>
+      <c r="V17" s="263"/>
       <c r="W17" s="53"/>
       <c r="X17" s="112"/>
     </row>
@@ -3643,8 +3640,8 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="134"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
       <c r="W18" s="13"/>
       <c r="X18" s="78"/>
     </row>
@@ -3669,8 +3666,8 @@
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="133"/>
-      <c r="V19" s="134"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="78"/>
     </row>
@@ -3695,8 +3692,8 @@
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="133"/>
-      <c r="V20" s="134"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
       <c r="W20" s="13"/>
       <c r="X20" s="78"/>
     </row>
@@ -3721,8 +3718,8 @@
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="133"/>
-      <c r="V21" s="134"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
       <c r="W21" s="13"/>
       <c r="X21" s="78"/>
     </row>
@@ -3747,8 +3744,8 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="133"/>
-      <c r="V22" s="134"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
       <c r="W22" s="13"/>
       <c r="X22" s="78"/>
     </row>
@@ -3773,8 +3770,8 @@
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="133"/>
-      <c r="V23" s="134"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="78"/>
     </row>
@@ -3799,8 +3796,8 @@
       <c r="R24" s="105"/>
       <c r="S24" s="105"/>
       <c r="T24" s="105"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="136"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
       <c r="W24" s="105"/>
       <c r="X24" s="106"/>
     </row>
@@ -3817,20 +3814,20 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="157" t="s">
+      <c r="M25" s="218" t="s">
         <v>158</v>
       </c>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="159"/>
+      <c r="N25" s="219"/>
+      <c r="O25" s="219"/>
+      <c r="P25" s="219"/>
+      <c r="Q25" s="219"/>
+      <c r="R25" s="219"/>
+      <c r="S25" s="219"/>
+      <c r="T25" s="219"/>
+      <c r="U25" s="232"/>
+      <c r="V25" s="232"/>
+      <c r="W25" s="219"/>
+      <c r="X25" s="220"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="77"/>
@@ -3845,22 +3842,22 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="152" t="s">
+      <c r="M26" s="221" t="s">
         <v>155</v>
       </c>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="142"/>
-      <c r="S26" s="140" t="s">
+      <c r="N26" s="222"/>
+      <c r="O26" s="222"/>
+      <c r="P26" s="222"/>
+      <c r="Q26" s="222"/>
+      <c r="R26" s="184"/>
+      <c r="S26" s="183" t="s">
         <v>157</v>
       </c>
-      <c r="T26" s="141"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="141"/>
-      <c r="W26" s="141"/>
-      <c r="X26" s="193"/>
+      <c r="T26" s="222"/>
+      <c r="U26" s="222"/>
+      <c r="V26" s="222"/>
+      <c r="W26" s="222"/>
+      <c r="X26" s="223"/>
     </row>
     <row r="27" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="77"/>
@@ -3878,23 +3875,23 @@
       <c r="M27" s="107">
         <v>1</v>
       </c>
-      <c r="N27" s="160"/>
-      <c r="O27" s="161"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="215"/>
       <c r="P27" s="104">
         <v>9</v>
       </c>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="161"/>
+      <c r="Q27" s="214"/>
+      <c r="R27" s="215"/>
       <c r="S27" s="104">
         <v>1</v>
       </c>
-      <c r="T27" s="160"/>
-      <c r="U27" s="161"/>
+      <c r="T27" s="214"/>
+      <c r="U27" s="215"/>
       <c r="V27" s="104">
         <v>9</v>
       </c>
-      <c r="W27" s="160"/>
-      <c r="X27" s="164"/>
+      <c r="W27" s="214"/>
+      <c r="X27" s="216"/>
     </row>
     <row r="28" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="77"/>
@@ -3912,23 +3909,23 @@
       <c r="M28" s="108">
         <v>2</v>
       </c>
-      <c r="N28" s="162"/>
-      <c r="O28" s="163"/>
+      <c r="N28" s="201"/>
+      <c r="O28" s="202"/>
       <c r="P28" s="75">
         <v>10</v>
       </c>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="163"/>
+      <c r="Q28" s="201"/>
+      <c r="R28" s="202"/>
       <c r="S28" s="75">
         <v>2</v>
       </c>
-      <c r="T28" s="162"/>
-      <c r="U28" s="163"/>
+      <c r="T28" s="201"/>
+      <c r="U28" s="202"/>
       <c r="V28" s="75">
         <v>10</v>
       </c>
-      <c r="W28" s="162"/>
-      <c r="X28" s="165"/>
+      <c r="W28" s="201"/>
+      <c r="X28" s="213"/>
     </row>
     <row r="29" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="77"/>
@@ -3946,23 +3943,23 @@
       <c r="M29" s="108">
         <v>3</v>
       </c>
-      <c r="N29" s="162"/>
-      <c r="O29" s="163"/>
+      <c r="N29" s="201"/>
+      <c r="O29" s="202"/>
       <c r="P29" s="75">
         <v>11</v>
       </c>
-      <c r="Q29" s="162"/>
-      <c r="R29" s="163"/>
+      <c r="Q29" s="201"/>
+      <c r="R29" s="202"/>
       <c r="S29" s="75">
         <v>3</v>
       </c>
-      <c r="T29" s="162"/>
-      <c r="U29" s="163"/>
+      <c r="T29" s="201"/>
+      <c r="U29" s="202"/>
       <c r="V29" s="75">
         <v>11</v>
       </c>
-      <c r="W29" s="162"/>
-      <c r="X29" s="165"/>
+      <c r="W29" s="201"/>
+      <c r="X29" s="213"/>
     </row>
     <row r="30" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="77"/>
@@ -3980,35 +3977,35 @@
       <c r="M30" s="108">
         <v>4</v>
       </c>
-      <c r="N30" s="162"/>
-      <c r="O30" s="163"/>
+      <c r="N30" s="201"/>
+      <c r="O30" s="202"/>
       <c r="P30" s="75">
         <v>12</v>
       </c>
-      <c r="Q30" s="162"/>
-      <c r="R30" s="163"/>
+      <c r="Q30" s="201"/>
+      <c r="R30" s="202"/>
       <c r="S30" s="75">
         <v>4</v>
       </c>
-      <c r="T30" s="162"/>
-      <c r="U30" s="163"/>
+      <c r="T30" s="201"/>
+      <c r="U30" s="202"/>
       <c r="V30" s="75">
         <v>12</v>
       </c>
-      <c r="W30" s="162"/>
-      <c r="X30" s="165"/>
+      <c r="W30" s="201"/>
+      <c r="X30" s="213"/>
     </row>
     <row r="31" spans="1:24" s="3" customFormat="1" ht="28.5" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="140" t="s">
+      <c r="C31" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="142"/>
-      <c r="E31" s="140" t="s">
+      <c r="D31" s="184"/>
+      <c r="E31" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="142"/>
+      <c r="F31" s="184"/>
       <c r="G31" s="81" t="s">
         <v>83</v>
       </c>
@@ -4024,39 +4021,39 @@
       <c r="K31" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="L31" s="168" t="s">
+      <c r="L31" s="210" t="s">
         <v>67</v>
       </c>
       <c r="M31" s="108">
         <v>5</v>
       </c>
-      <c r="N31" s="162"/>
-      <c r="O31" s="163"/>
+      <c r="N31" s="201"/>
+      <c r="O31" s="202"/>
       <c r="P31" s="75">
         <v>13</v>
       </c>
-      <c r="Q31" s="162"/>
-      <c r="R31" s="163"/>
+      <c r="Q31" s="201"/>
+      <c r="R31" s="202"/>
       <c r="S31" s="75">
         <v>5</v>
       </c>
-      <c r="T31" s="162"/>
-      <c r="U31" s="163"/>
+      <c r="T31" s="201"/>
+      <c r="U31" s="202"/>
       <c r="V31" s="75">
         <v>13</v>
       </c>
-      <c r="W31" s="162"/>
-      <c r="X31" s="165"/>
+      <c r="W31" s="201"/>
+      <c r="X31" s="213"/>
     </row>
     <row r="32" spans="1:24" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A32" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="134"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="138"/>
       <c r="G32" s="13"/>
       <c r="H32" s="24">
         <v>1</v>
@@ -4070,37 +4067,37 @@
       <c r="K32" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="169"/>
+      <c r="L32" s="211"/>
       <c r="M32" s="108">
         <v>6</v>
       </c>
-      <c r="N32" s="162"/>
-      <c r="O32" s="163"/>
+      <c r="N32" s="201"/>
+      <c r="O32" s="202"/>
       <c r="P32" s="75">
         <v>14</v>
       </c>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="163"/>
+      <c r="Q32" s="201"/>
+      <c r="R32" s="202"/>
       <c r="S32" s="75">
         <v>6</v>
       </c>
-      <c r="T32" s="162"/>
-      <c r="U32" s="163"/>
+      <c r="T32" s="201"/>
+      <c r="U32" s="202"/>
       <c r="V32" s="75">
         <v>14</v>
       </c>
-      <c r="W32" s="162"/>
-      <c r="X32" s="165"/>
+      <c r="W32" s="201"/>
+      <c r="X32" s="213"/>
     </row>
     <row r="33" spans="1:24" s="3" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A33" s="171" t="s">
+      <c r="A33" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="172"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="134"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="138"/>
       <c r="G33" s="13"/>
       <c r="H33" s="32" t="s">
         <v>84</v>
@@ -4114,39 +4111,39 @@
       <c r="K33" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="L33" s="170" t="s">
+      <c r="L33" s="212" t="s">
         <v>67</v>
       </c>
       <c r="M33" s="108">
         <v>7</v>
       </c>
-      <c r="N33" s="162"/>
-      <c r="O33" s="163"/>
+      <c r="N33" s="201"/>
+      <c r="O33" s="202"/>
       <c r="P33" s="75">
         <v>15</v>
       </c>
-      <c r="Q33" s="162"/>
-      <c r="R33" s="163"/>
+      <c r="Q33" s="201"/>
+      <c r="R33" s="202"/>
       <c r="S33" s="75">
         <v>7</v>
       </c>
-      <c r="T33" s="162"/>
-      <c r="U33" s="163"/>
+      <c r="T33" s="201"/>
+      <c r="U33" s="202"/>
       <c r="V33" s="75">
         <v>15</v>
       </c>
-      <c r="W33" s="162"/>
-      <c r="X33" s="165"/>
+      <c r="W33" s="201"/>
+      <c r="X33" s="213"/>
     </row>
     <row r="34" spans="1:24" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A34" s="171" t="s">
+      <c r="A34" s="199" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="134"/>
+      <c r="B34" s="200"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="138"/>
       <c r="G34" s="13"/>
       <c r="H34" s="30">
         <v>2</v>
@@ -4160,27 +4157,27 @@
       <c r="K34" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="169"/>
+      <c r="L34" s="211"/>
       <c r="M34" s="109">
         <v>8</v>
       </c>
-      <c r="N34" s="166"/>
-      <c r="O34" s="178"/>
+      <c r="N34" s="203"/>
+      <c r="O34" s="204"/>
       <c r="P34" s="110"/>
-      <c r="Q34" s="166"/>
-      <c r="R34" s="178"/>
+      <c r="Q34" s="203"/>
+      <c r="R34" s="204"/>
       <c r="S34" s="110">
         <v>8</v>
       </c>
-      <c r="T34" s="166"/>
-      <c r="U34" s="178"/>
+      <c r="T34" s="203"/>
+      <c r="U34" s="204"/>
       <c r="V34" s="111"/>
-      <c r="W34" s="166"/>
-      <c r="X34" s="167"/>
+      <c r="W34" s="203"/>
+      <c r="X34" s="209"/>
     </row>
     <row r="35" spans="1:24" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A35" s="173"/>
-      <c r="B35" s="174"/>
+      <c r="A35" s="194"/>
+      <c r="B35" s="195"/>
       <c r="C35" s="18"/>
       <c r="D35" s="8"/>
       <c r="E35" s="18"/>
@@ -4191,22 +4188,22 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="113"/>
-      <c r="M35" s="179" t="s">
+      <c r="M35" s="205" t="s">
         <v>156</v>
       </c>
-      <c r="N35" s="180"/>
-      <c r="O35" s="180"/>
-      <c r="P35" s="180"/>
-      <c r="Q35" s="180"/>
-      <c r="R35" s="181"/>
-      <c r="S35" s="179" t="s">
+      <c r="N35" s="206"/>
+      <c r="O35" s="206"/>
+      <c r="P35" s="206"/>
+      <c r="Q35" s="206"/>
+      <c r="R35" s="207"/>
+      <c r="S35" s="205" t="s">
         <v>156</v>
       </c>
-      <c r="T35" s="180"/>
-      <c r="U35" s="180"/>
-      <c r="V35" s="180"/>
-      <c r="W35" s="180"/>
-      <c r="X35" s="182"/>
+      <c r="T35" s="206"/>
+      <c r="U35" s="206"/>
+      <c r="V35" s="206"/>
+      <c r="W35" s="206"/>
+      <c r="X35" s="208"/>
     </row>
     <row r="36" spans="1:24" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A36" s="126" t="s">
@@ -4230,12 +4227,12 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="175" t="s">
+      <c r="T36" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="U36" s="176"/>
-      <c r="V36" s="176"/>
-      <c r="W36" s="177"/>
+      <c r="U36" s="197"/>
+      <c r="V36" s="197"/>
+      <c r="W36" s="198"/>
       <c r="X36" s="73" t="s">
         <v>111</v>
       </c>
@@ -4253,54 +4250,45 @@
     <row r="47" spans="1:24" s="3" customFormat="1" ht="17.399999999999999"/>
     <row r="48" spans="1:24" s="3" customFormat="1" ht="17.399999999999999"/>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="F5:I7"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="J6:M7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="Z2:AU2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U16:V16"/>
+  <mergeCells count="108">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="C5:E7"/>
+    <mergeCell ref="C9:E10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="M25:X25"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="S26:X26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T32:U32"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
@@ -4323,57 +4311,53 @@
     <mergeCell ref="Q31:R31"/>
     <mergeCell ref="Q32:R32"/>
     <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="M25:X25"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="S26:X26"/>
     <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:V11"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N6:Q7"/>
     <mergeCell ref="H9:I10"/>
     <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="Z2:AU2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="F5:I7"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="N6:Q7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="C5:E7"/>
-    <mergeCell ref="C9:E10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4387,8 +4371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.8"/>
@@ -4452,45 +4436,45 @@
       <c r="R3" s="58"/>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="218" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="252" t="s">
+      <c r="B4" s="250"/>
+      <c r="C4" s="251" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="251"/>
-      <c r="E4" s="252" t="s">
+      <c r="D4" s="250"/>
+      <c r="E4" s="251" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="251"/>
-      <c r="G4" s="158" t="s">
+      <c r="F4" s="250"/>
+      <c r="G4" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="159"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="220"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="254" t="s">
+      <c r="K4" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="255"/>
-      <c r="M4" s="255"/>
-      <c r="N4" s="255"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="255"/>
-      <c r="Q4" s="255"/>
-      <c r="R4" s="256"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="241"/>
+      <c r="P4" s="241"/>
+      <c r="Q4" s="241"/>
+      <c r="R4" s="242"/>
     </row>
     <row r="5" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A5" s="257"/>
-      <c r="B5" s="258"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="259"/>
-      <c r="I5" s="261"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="248"/>
       <c r="J5" s="57"/>
       <c r="K5" s="77"/>
       <c r="L5" s="13" t="s">
@@ -4514,15 +4498,15 @@
       <c r="R5" s="78"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="262"/>
+      <c r="A6" s="245"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="249"/>
       <c r="J6" s="57"/>
       <c r="K6" s="19" t="s">
         <v>125</v>
@@ -4718,16 +4702,16 @@
       <c r="H11" s="61"/>
       <c r="I11" s="62"/>
       <c r="J11" s="57"/>
-      <c r="K11" s="254" t="s">
+      <c r="K11" s="240" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="255"/>
-      <c r="M11" s="255"/>
-      <c r="N11" s="255"/>
-      <c r="O11" s="255"/>
-      <c r="P11" s="255"/>
-      <c r="Q11" s="255"/>
-      <c r="R11" s="256"/>
+      <c r="L11" s="241"/>
+      <c r="M11" s="241"/>
+      <c r="N11" s="241"/>
+      <c r="O11" s="241"/>
+      <c r="P11" s="241"/>
+      <c r="Q11" s="241"/>
+      <c r="R11" s="242"/>
     </row>
     <row r="12" spans="1:18" ht="29.25" customHeight="1">
       <c r="A12" s="63"/>
@@ -4928,32 +4912,32 @@
       <c r="H18" s="55"/>
       <c r="I18" s="42"/>
       <c r="J18" s="57"/>
-      <c r="K18" s="254" t="s">
+      <c r="K18" s="240" t="s">
         <v>138</v>
       </c>
-      <c r="L18" s="255"/>
-      <c r="M18" s="255"/>
-      <c r="N18" s="255"/>
-      <c r="O18" s="255"/>
-      <c r="P18" s="255"/>
-      <c r="Q18" s="255"/>
-      <c r="R18" s="256"/>
+      <c r="L18" s="241"/>
+      <c r="M18" s="241"/>
+      <c r="N18" s="241"/>
+      <c r="O18" s="241"/>
+      <c r="P18" s="241"/>
+      <c r="Q18" s="241"/>
+      <c r="R18" s="242"/>
     </row>
     <row r="19" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A19" s="250" t="s">
+      <c r="A19" s="245" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="176"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="55"/>
       <c r="I19" s="42"/>
       <c r="J19" s="57"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="134"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="138"/>
       <c r="M19" s="12" t="s">
         <v>143</v>
       </c>
@@ -4980,10 +4964,10 @@
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
-      <c r="K20" s="246" t="s">
+      <c r="K20" s="256" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="247"/>
+      <c r="L20" s="257"/>
       <c r="M20" s="84" t="s">
         <v>67</v>
       </c>
@@ -5000,28 +4984,28 @@
       <c r="R20" s="78"/>
     </row>
     <row r="21" spans="1:18" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="218" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="251"/>
-      <c r="C21" s="252" t="s">
+      <c r="B21" s="250"/>
+      <c r="C21" s="251" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="251"/>
-      <c r="E21" s="252" t="s">
+      <c r="D21" s="250"/>
+      <c r="E21" s="251" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="251"/>
-      <c r="G21" s="158" t="s">
+      <c r="F21" s="250"/>
+      <c r="G21" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="220"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="246" t="s">
+      <c r="K21" s="256" t="s">
         <v>140</v>
       </c>
-      <c r="L21" s="247"/>
+      <c r="L21" s="257"/>
       <c r="M21" s="84" t="s">
         <v>67</v>
       </c>
@@ -5038,20 +5022,20 @@
       <c r="R21" s="78"/>
     </row>
     <row r="22" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A22" s="263"/>
-      <c r="B22" s="264"/>
-      <c r="C22" s="265"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="265"/>
-      <c r="F22" s="264"/>
-      <c r="G22" s="265"/>
-      <c r="H22" s="266"/>
-      <c r="I22" s="267"/>
+      <c r="A22" s="252"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="237"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="237"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="237"/>
+      <c r="H22" s="238"/>
+      <c r="I22" s="239"/>
       <c r="J22" s="57"/>
-      <c r="K22" s="246" t="s">
+      <c r="K22" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="L22" s="247"/>
+      <c r="L22" s="257"/>
       <c r="M22" s="95" t="s">
         <v>147</v>
       </c>
@@ -5076,10 +5060,10 @@
       <c r="H23" s="57"/>
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
-      <c r="K23" s="246" t="s">
+      <c r="K23" s="256" t="s">
         <v>142</v>
       </c>
-      <c r="L23" s="247"/>
+      <c r="L23" s="257"/>
       <c r="M23" s="95" t="s">
         <v>147</v>
       </c>
@@ -5122,8 +5106,8 @@
         <v>92</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="248"/>
-      <c r="L24" s="136"/>
+      <c r="K24" s="258"/>
+      <c r="L24" s="217"/>
       <c r="M24" s="79"/>
       <c r="N24" s="79"/>
       <c r="O24" s="79"/>
@@ -5306,12 +5290,12 @@
       <c r="J32" s="57"/>
       <c r="K32" s="69"/>
       <c r="L32" s="57"/>
-      <c r="M32" s="249"/>
-      <c r="N32" s="249"/>
-      <c r="O32" s="249"/>
-      <c r="P32" s="249"/>
-      <c r="Q32" s="249"/>
-      <c r="R32" s="253"/>
+      <c r="M32" s="259"/>
+      <c r="N32" s="259"/>
+      <c r="O32" s="259"/>
+      <c r="P32" s="259"/>
+      <c r="Q32" s="259"/>
+      <c r="R32" s="260"/>
     </row>
     <row r="33" spans="1:18" ht="21.75" customHeight="1">
       <c r="A33" s="63"/>
@@ -5354,12 +5338,12 @@
       <c r="R34" s="42"/>
     </row>
     <row r="35" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A35" s="250" t="s">
+      <c r="A35" s="245" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="177"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="197"/>
+      <c r="D35" s="198"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
       <c r="G35" s="55"/>
@@ -5385,17 +5369,36 @@
       <c r="E36" s="71"/>
       <c r="F36" s="71"/>
       <c r="G36" s="72"/>
-      <c r="O36" s="244" t="s">
+      <c r="O36" s="254" t="s">
         <v>123</v>
       </c>
-      <c r="P36" s="245"/>
-      <c r="Q36" s="244" t="s">
+      <c r="P36" s="255"/>
+      <c r="Q36" s="254" t="s">
         <v>112</v>
       </c>
-      <c r="R36" s="245"/>
+      <c r="R36" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="K4:R4"/>
     <mergeCell ref="K11:R11"/>
@@ -5409,25 +5412,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.11811023622047245" header="0.15748031496062992" footer="0.11811023622047245"/>
